--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -8606,8 +8606,8 @@
   <sheetPr/>
   <dimension ref="A1:B220655"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1598" workbookViewId="0">
+      <selection activeCell="D1625" sqref="D1625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>

--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -8606,8 +8606,8 @@
   <sheetPr/>
   <dimension ref="A1:B220655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1598" workbookViewId="0">
-      <selection activeCell="D1625" sqref="D1625"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
